--- a/public/template/importTeacherXKAP.xlsx
+++ b/public/template/importTeacherXKAP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="成员列表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>填写须知：</t>
   </si>
@@ -22,16 +22,13 @@
     <t>1、不能在该Excel表中对成员信息类别进行增加、删除或修改；</t>
   </si>
   <si>
-    <t>2、Excel中红色字段为必填字段,黑色字段为选填字段（手机和个人邮箱需选其一填写），字段值里请不要填入“，”字符；</t>
+    <t>2、工号：0-255个字符，成员的唯一标识，可在教师管理中查看。</t>
   </si>
   <si>
-    <t>3、工号：0-255个字符，成员的唯一标识，由1-64个字母、数字、点(.)、减号(-)或下划线(_)组成。（例如：JiaMiaoMiao）</t>
+    <t>3、姓名：0-100个字符，对应教师姓名为中文。</t>
   </si>
   <si>
-    <t>4、姓名：0-100个字符，对应教师姓名为中文。（例如：张老三）</t>
-  </si>
-  <si>
-    <t>5、巡课日期：0-100个字符，要求格式为yyyy-mm-dd。（例如：2018-02-01）</t>
+    <t>4、巡课日期：要求格式为yyyy-mm-dd。</t>
   </si>
   <si>
     <t>姓名</t>
@@ -42,18 +39,27 @@
   <si>
     <t>巡课日期</t>
   </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>woFmXKCAAAlaTzW_44IWuKmQEc5yj-Xw</t>
+  </si>
+  <si>
+    <t>2021-11-11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,11 +87,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,13 +138,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -110,46 +146,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,63 +200,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +247,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -246,37 +301,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,25 +349,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,25 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,73 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,10 +443,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -450,6 +461,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,30 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -519,9 +530,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,106 +544,121 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,47 +667,34 @@
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1063,16 +1078,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
@@ -1170,57 +1186,46 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" ht="22.5" spans="1:14">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="20.25" spans="1:14">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" ht="20.25" spans="1:14">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="1"/>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
